--- a/Assets/Resources/map/testMap.xlsx
+++ b/Assets/Resources/map/testMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kings\Desktop\Sussex\SWE\CWK\TycoonAgileVersion2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\monopoly\Assets\Resources\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2BD454-C31A-44AC-8612-8D761BDE4610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D85878-2215-4221-996B-05741046D230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="770" windowWidth="7550" windowHeight="10030" xr2:uid="{3AB37EF7-9957-4EAE-A376-EF9CBBC9245A}"/>
+    <workbookView xWindow="16973" yWindow="-1147" windowWidth="18854" windowHeight="11147" xr2:uid="{3AB37EF7-9957-4EAE-A376-EF9CBBC9245A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -358,13 +358,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,9 +382,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -423,7 +422,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -529,7 +528,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -671,7 +670,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -681,22 +680,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194933F7-920A-45E1-89BC-1AB0AFB7405E}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.23046875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
@@ -710,7 +709,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
@@ -733,7 +732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -771,7 +770,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -792,7 +791,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2</v>
       </c>
@@ -827,7 +826,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>3</v>
       </c>
@@ -848,7 +847,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>4</v>
       </c>
@@ -883,7 +882,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>5</v>
       </c>
@@ -904,7 +903,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>6</v>
       </c>
@@ -920,7 +919,7 @@
       <c r="H10">
         <v>200</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" t="s">
         <v>59</v>
       </c>
       <c r="J10" s="3"/>
@@ -930,7 +929,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>7</v>
       </c>
@@ -965,7 +964,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>8</v>
       </c>
@@ -986,7 +985,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1021,7 +1020,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1056,7 +1055,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1074,7 +1073,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1109,7 +1108,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1125,7 +1124,7 @@
       <c r="H17">
         <v>150</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" t="s">
         <v>59</v>
       </c>
       <c r="J17" s="3"/>
@@ -1135,7 +1134,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1170,7 +1169,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1205,7 +1204,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1221,7 +1220,7 @@
       <c r="H20">
         <v>200</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" t="s">
         <v>59</v>
       </c>
       <c r="J20" s="3"/>
@@ -1231,7 +1230,7 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1266,7 +1265,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1287,7 +1286,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1322,7 +1321,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1357,7 +1356,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1378,7 +1377,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1413,7 +1412,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>23</v>
       </c>
@@ -1434,7 +1433,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>24</v>
       </c>
@@ -1469,7 +1468,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>25</v>
       </c>
@@ -1504,7 +1503,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>26</v>
       </c>
@@ -1520,7 +1519,7 @@
       <c r="H30">
         <v>200</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" t="s">
         <v>59</v>
       </c>
       <c r="J30" s="3"/>
@@ -1530,7 +1529,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>27</v>
       </c>
@@ -1565,7 +1564,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>28</v>
       </c>
@@ -1600,7 +1599,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>29</v>
       </c>
@@ -1616,7 +1615,7 @@
       <c r="H33">
         <v>150</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" t="s">
         <v>59</v>
       </c>
       <c r="J33" s="3"/>
@@ -1626,7 +1625,7 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>30</v>
       </c>
@@ -1661,7 +1660,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>31</v>
       </c>
@@ -1682,7 +1681,7 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>32</v>
       </c>
@@ -1717,7 +1716,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>33</v>
       </c>
@@ -1752,7 +1751,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>34</v>
       </c>
@@ -1773,7 +1772,7 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>35</v>
       </c>
@@ -1808,7 +1807,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>36</v>
       </c>
@@ -1824,7 +1823,7 @@
       <c r="H40">
         <v>200</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" t="s">
         <v>59</v>
       </c>
       <c r="J40" s="3"/>
@@ -1834,14 +1833,14 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>37</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>19</v>
       </c>
       <c r="F41" t="s">
@@ -1855,7 +1854,7 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>38</v>
       </c>
@@ -1890,7 +1889,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>39</v>
       </c>
@@ -1911,7 +1910,7 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>40</v>
       </c>
@@ -1946,7 +1945,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
@@ -1957,7 +1956,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -1972,74 +1971,74 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>60</v>
       </c>
       <c r="H48" t="s">
         <v>69</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="4">
         <v>50</v>
       </c>
       <c r="K48" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>63</v>
       </c>
       <c r="H49" t="s">
         <v>73</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="4">
         <v>100</v>
       </c>
       <c r="K49" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>64</v>
       </c>
       <c r="H50" t="s">
         <v>75</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J50" s="4">
         <v>150</v>
       </c>
       <c r="K50" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>65</v>
       </c>
       <c r="H51" t="s">
         <v>80</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51" s="4">
         <v>200</v>
       </c>
       <c r="K51" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
